--- a/outcome/appendix/data/0_impact/HAV.xlsx
+++ b/outcome/appendix/data/0_impact/HAV.xlsx
@@ -409,7 +409,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>1421.10818042994</v>
+        <v>1421.1085362392</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -427,7 +427,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>1449.96538965467</v>
+        <v>1449.96582235398</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -445,7 +445,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>1570.17725319156</v>
+        <v>1570.17775086219</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -463,7 +463,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>1614.53489406416</v>
+        <v>1614.53541172638</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -481,7 +481,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>1596.37827105741</v>
+        <v>1596.3785770234</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -499,7 +499,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>1677.16232550308</v>
+        <v>1677.16254262586</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -517,7 +517,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>1754.37729031274</v>
+        <v>1754.37756262885</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -535,7 +535,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>1717.90098541052</v>
+        <v>1717.90113062142</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -553,7 +553,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>1666.70957244634</v>
+        <v>1666.70946453886</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -571,7 +571,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1599.27914720033</v>
+        <v>1599.27874198787</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -589,7 +589,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>1543.88200211682</v>
+        <v>1543.88140296352</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -607,7 +607,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>1513.19409436713</v>
+        <v>1513.1934712603</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -625,7 +625,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>1504.23703526923</v>
+        <v>1504.23660800372</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -643,7 +643,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>1501.42504506542</v>
+        <v>1501.42480036561</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -661,7 +661,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>1523.15034419839</v>
+        <v>1523.1502821554</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -679,7 +679,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>1542.39614739951</v>
+        <v>1542.39623134312</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -697,7 +697,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>1550.59820831784</v>
+        <v>1550.59831429358</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -715,7 +715,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>1573.00304196579</v>
+        <v>1573.00315031026</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -733,7 +733,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>1600.60515772528</v>
+        <v>1600.60530171409</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -751,7 +751,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1609.11552870663</v>
+        <v>1609.11564090045</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -769,7 +769,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>1605.62491353523</v>
+        <v>1605.6249126297</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -787,7 +787,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>1590.95360888761</v>
+        <v>1590.95345554919</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -805,7 +805,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1572.44166001085</v>
+        <v>1572.44136188112</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -823,7 +823,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>1555.71421192898</v>
+        <v>1555.71382076012</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -841,7 +841,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1543.57817552168</v>
+        <v>1543.57777348273</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -859,7 +859,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>1535.17174200102</v>
+        <v>1535.17137792022</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -877,7 +877,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>1534.02766526989</v>
+        <v>1534.0273765525</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -895,7 +895,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>1536.41490729679</v>
+        <v>1536.41470835688</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -913,7 +913,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>1539.17714848028</v>
+        <v>1539.17701299763</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -931,7 +931,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>1545.31226377324</v>
+        <v>1545.31217384229</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -949,7 +949,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>1554.14707399302</v>
+        <v>1554.14702713573</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -967,7 +967,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>1560.84263013239</v>
+        <v>1560.84260147676</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -985,7 +985,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>1564.34283264563</v>
+        <v>1564.34278435555</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1003,7 +1003,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>1563.74589876738</v>
+        <v>1563.74579948945</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1021,7 +1021,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>1560.06820509645</v>
+        <v>1560.06803837518</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1039,7 +1039,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>1554.83440012168</v>
+        <v>1554.83416993218</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1057,7 +1057,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>1549.45320099296</v>
+        <v>1549.45292902725</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -1075,7 +1075,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>1544.59196674841</v>
+        <v>1544.59167734177</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
